--- a/code-idea-verse-main/Waitlist.xlsx
+++ b/code-idea-verse-main/Waitlist.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -471,9 +471,32 @@
         <v>2025-04-29T04:56:12.356Z</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>hello</v>
+      </c>
+      <c r="B4" t="str">
+        <v>hi@x.com</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D4" t="str">
+        <v>endia</v>
+      </c>
+      <c r="E4" t="str">
+        <v>love</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>2025-04-29T07:42:08.211Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/code-idea-verse-main/Waitlist.xlsx
+++ b/code-idea-verse-main/Waitlist.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -494,9 +494,32 @@
         <v>2025-04-29T07:42:08.211Z</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Aditya Tripathi</v>
+      </c>
+      <c r="B5" t="str">
+        <v>dheerajmoodys@gmail.com</v>
+      </c>
+      <c r="C5" t="str">
+        <v>9389412339</v>
+      </c>
+      <c r="D5" t="str">
+        <v>India</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Just vibing</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>2025-04-29T11:49:35.677Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/code-idea-verse-main/Waitlist.xlsx
+++ b/code-idea-verse-main/Waitlist.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -517,9 +517,32 @@
         <v>2025-04-29T11:49:35.677Z</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Aditya Tripathi</v>
+      </c>
+      <c r="B6" t="str">
+        <v>dheerajmoodys@gmail.com</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>India</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>2025-05-07T05:53:46.079Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>